--- a/your-project/crime.xlsx
+++ b/your-project/crime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FC74A3-7223-4648-8613-3BBF7A9C2186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CEBF4-39AE-DA4B-B45F-5FEB1D850FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="980" windowWidth="23640" windowHeight="15660" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Nbh</t>
-  </si>
-  <si>
     <t>num_crimes</t>
+  </si>
+  <si>
+    <t>Dist</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/your-project/crime.xlsx
+++ b/your-project/crime.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CEBF4-39AE-DA4B-B45F-5FEB1D850FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71DE70D-E2A9-3744-8494-E45277DE2AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="980" windowWidth="23640" windowHeight="15660" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ciutat Vella</t>
   </si>
@@ -63,39 +63,6 @@
   </si>
   <si>
     <t>Sant Martí</t>
-  </si>
-  <si>
-    <t>44.241  </t>
-  </si>
-  <si>
-    <t>46.210  </t>
-  </si>
-  <si>
-    <t>20.219  </t>
-  </si>
-  <si>
-    <t>7.444  </t>
-  </si>
-  <si>
-    <t>9.252  </t>
-  </si>
-  <si>
-    <t>7.731  </t>
-  </si>
-  <si>
-    <t>7.871  </t>
-  </si>
-  <si>
-    <t>8.627  </t>
-  </si>
-  <si>
-    <t>10.657  </t>
-  </si>
-  <si>
-    <t>22.417  </t>
-  </si>
-  <si>
-    <t>2.160  </t>
   </si>
   <si>
     <t>Unknown</t>
@@ -111,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,12 +97,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -159,12 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +442,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,98 +453,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>44241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>46210</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
+      <c r="B4">
+        <v>20219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>7444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>9252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
+      <c r="B7">
+        <v>7731</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
+      <c r="B8">
+        <v>7871</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
+      <c r="B9">
+        <v>8627</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
+      <c r="B10">
+        <v>10657</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>22417</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2160</v>
       </c>
     </row>
   </sheetData>
